--- a/config_7.6/item_config.xlsx
+++ b/config_7.6/item_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11535" windowHeight="10350" tabRatio="597"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
     <t>act_ty_by_drop_7</t>
   </si>
   <si>
-    <t>西瓜</t>
+    <t>啤酒券</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -2256,7 +2256,7 @@
     <t>szg_iocn_sl</t>
   </si>
   <si>
-    <t>饲料</t>
+    <t>鱼粮</t>
   </si>
   <si>
     <t>用于喂养水族馆中的鱼苗</t>
@@ -3403,7 +3403,7 @@
     <t>com_icon_cl</t>
   </si>
   <si>
-    <t>财力</t>
+    <t>牛啤值</t>
   </si>
   <si>
     <t>用于参加排行榜</t>
@@ -3474,10 +3474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3537,6 +3537,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3551,16 +3582,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3574,8 +3612,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3588,63 +3643,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3671,19 +3674,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3743,7 +3743,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,49 +3869,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,109 +3905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3966,6 +3966,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3983,8 +3992,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4037,17 +4048,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4056,10 +4056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4068,137 +4068,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4650,10 +4650,10 @@
   <sheetPr/>
   <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15575,7 +15575,7 @@
       <c r="H322" s="10">
         <v>1</v>
       </c>
-      <c r="I322" s="14" t="s">
+      <c r="I322" s="16" t="s">
         <v>1005</v>
       </c>
       <c r="J322" s="14" t="s">

--- a/config_7.6/item_config.xlsx
+++ b/config_7.6/item_config.xlsx
@@ -10,14 +10,14 @@
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$325</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1020">
   <si>
     <t>id|行号</t>
   </si>
@@ -2508,10 +2508,10 @@
     <t>prop_fishbowl_fry25</t>
   </si>
   <si>
-    <t>3dby_icon_yu49</t>
-  </si>
-  <si>
-    <t>炽火龙王鱼苗</t>
+    <t>3dby_icon_yu58</t>
+  </si>
+  <si>
+    <t>深海鲸鱼苗</t>
   </si>
   <si>
     <t>prop_fishbowl_fry26</t>
@@ -2568,15 +2568,6 @@
     <t>宝藏鳄鱼鱼苗</t>
   </si>
   <si>
-    <t>prop_fishbowl_fry32</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-  </si>
-  <si>
-    <t>深海鲸鱼苗</t>
-  </si>
-  <si>
     <t>prop_fishbowl_fry_fragment1</t>
   </si>
   <si>
@@ -2727,7 +2718,7 @@
     <t>prop_fishbowl_fry_fragment25</t>
   </si>
   <si>
-    <t>炽火龙王碎片</t>
+    <t>深海鲸碎片</t>
   </si>
   <si>
     <t>prop_fishbowl_fry_fragment26</t>
@@ -2766,12 +2757,6 @@
     <t>宝藏鳄鱼碎片</t>
   </si>
   <si>
-    <t>prop_fishbowl_fry_fragment32</t>
-  </si>
-  <si>
-    <t>深海鲸碎片</t>
-  </si>
-  <si>
     <t>prop_fishbowl_fish1</t>
   </si>
   <si>
@@ -2922,7 +2907,7 @@
     <t>prop_fishbowl_fish25</t>
   </si>
   <si>
-    <t>炽火龙王</t>
+    <t>深海鲸</t>
   </si>
   <si>
     <t>prop_fishbowl_fish26</t>
@@ -2959,12 +2944,6 @@
   </si>
   <si>
     <t>宝藏鳄鱼</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fish32</t>
-  </si>
-  <si>
-    <t>深海鲸</t>
   </si>
   <si>
     <t>prop_12_12_lh</t>
@@ -3474,10 +3453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3525,21 +3504,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3553,73 +3614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3628,24 +3622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3660,24 +3638,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3743,7 +3722,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,163 +3884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3951,6 +3930,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3966,15 +3954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3986,6 +3965,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4025,26 +4019,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4056,10 +4035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4068,133 +4047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4312,19 +4291,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4648,12 +4627,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q328"/>
+  <dimension ref="A1:Q325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11791,7 +11770,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C213" s="35" t="s">
         <v>712</v>
@@ -11802,14 +11781,14 @@
       <c r="E213" s="7">
         <v>1</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F213" s="35" t="s">
         <v>713</v>
       </c>
       <c r="G213" s="7">
         <v>1</v>
       </c>
       <c r="H213" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I213" s="35" t="s">
         <v>714</v>
@@ -12036,7 +12015,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C220" s="35" t="s">
         <v>733</v>
@@ -12048,19 +12027,19 @@
         <v>1</v>
       </c>
       <c r="F220" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="G220" s="7">
+        <v>1</v>
+      </c>
+      <c r="H220" s="7">
+        <v>38</v>
+      </c>
+      <c r="I220" s="35" t="s">
         <v>734</v>
       </c>
-      <c r="G220" s="7">
-        <v>1</v>
-      </c>
-      <c r="H220" s="7">
-        <v>36</v>
-      </c>
-      <c r="I220" s="35" t="s">
+      <c r="J220" s="35" t="s">
         <v>735</v>
-      </c>
-      <c r="J220" s="35" t="s">
-        <v>642</v>
       </c>
       <c r="N220" s="7">
         <v>16</v>
@@ -12071,9 +12050,9 @@
         <v>220</v>
       </c>
       <c r="B221" s="3">
-        <v>220</v>
-      </c>
-      <c r="C221" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>736</v>
       </c>
       <c r="D221" s="7">
@@ -12082,20 +12061,20 @@
       <c r="E221" s="7">
         <v>1</v>
       </c>
-      <c r="F221" s="35" t="s">
-        <v>640</v>
+      <c r="F221" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G221" s="7">
         <v>1</v>
       </c>
       <c r="H221" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I221" s="35" t="s">
         <v>737</v>
       </c>
       <c r="J221" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N221" s="7">
         <v>16</v>
@@ -12106,31 +12085,31 @@
         <v>221</v>
       </c>
       <c r="B222" s="3">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C222" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D222" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E222" s="7">
+        <v>1</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G222" s="7">
+        <v>1</v>
+      </c>
+      <c r="H222" s="7">
+        <v>40</v>
+      </c>
+      <c r="I222" s="35" t="s">
         <v>739</v>
       </c>
-      <c r="D222" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E222" s="7">
-        <v>1</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G222" s="7">
-        <v>1</v>
-      </c>
-      <c r="H222" s="7">
-        <v>39</v>
-      </c>
-      <c r="I222" s="35" t="s">
-        <v>740</v>
-      </c>
       <c r="J222" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N222" s="7">
         <v>16</v>
@@ -12141,31 +12120,31 @@
         <v>222</v>
       </c>
       <c r="B223" s="3">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C223" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D223" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E223" s="7">
+        <v>1</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G223" s="7">
+        <v>1</v>
+      </c>
+      <c r="H223" s="7">
+        <v>41</v>
+      </c>
+      <c r="I223" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="D223" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E223" s="7">
-        <v>1</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="G223" s="7">
-        <v>1</v>
-      </c>
-      <c r="H223" s="7">
-        <v>40</v>
-      </c>
-      <c r="I223" s="35" t="s">
-        <v>742</v>
-      </c>
       <c r="J223" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N223" s="7">
         <v>16</v>
@@ -12176,31 +12155,31 @@
         <v>223</v>
       </c>
       <c r="B224" s="3">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C224" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D224" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E224" s="7">
+        <v>1</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G224" s="7">
+        <v>1</v>
+      </c>
+      <c r="H224" s="7">
+        <v>42</v>
+      </c>
+      <c r="I224" s="35" t="s">
         <v>743</v>
       </c>
-      <c r="D224" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E224" s="7">
-        <v>1</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="G224" s="7">
-        <v>1</v>
-      </c>
-      <c r="H224" s="7">
-        <v>41</v>
-      </c>
-      <c r="I224" s="35" t="s">
-        <v>744</v>
-      </c>
       <c r="J224" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N224" s="7">
         <v>16</v>
@@ -12211,31 +12190,31 @@
         <v>224</v>
       </c>
       <c r="B225" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C225" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D225" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E225" s="7">
+        <v>1</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G225" s="7">
+        <v>1</v>
+      </c>
+      <c r="H225" s="7">
+        <v>43</v>
+      </c>
+      <c r="I225" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="D225" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E225" s="7">
-        <v>1</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="G225" s="7">
-        <v>1</v>
-      </c>
-      <c r="H225" s="7">
-        <v>42</v>
-      </c>
-      <c r="I225" s="35" t="s">
-        <v>746</v>
-      </c>
       <c r="J225" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N225" s="7">
         <v>16</v>
@@ -12246,31 +12225,31 @@
         <v>225</v>
       </c>
       <c r="B226" s="3">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C226" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D226" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="7">
+        <v>1</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G226" s="7">
+        <v>1</v>
+      </c>
+      <c r="H226" s="7">
+        <v>44</v>
+      </c>
+      <c r="I226" s="35" t="s">
         <v>747</v>
       </c>
-      <c r="D226" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E226" s="7">
-        <v>1</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G226" s="7">
-        <v>1</v>
-      </c>
-      <c r="H226" s="7">
-        <v>43</v>
-      </c>
-      <c r="I226" s="35" t="s">
-        <v>748</v>
-      </c>
       <c r="J226" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N226" s="7">
         <v>16</v>
@@ -12281,31 +12260,31 @@
         <v>226</v>
       </c>
       <c r="B227" s="3">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C227" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D227" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E227" s="7">
+        <v>1</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="G227" s="7">
+        <v>1</v>
+      </c>
+      <c r="H227" s="7">
+        <v>45</v>
+      </c>
+      <c r="I227" s="35" t="s">
         <v>749</v>
       </c>
-      <c r="D227" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E227" s="7">
-        <v>1</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G227" s="7">
-        <v>1</v>
-      </c>
-      <c r="H227" s="7">
-        <v>44</v>
-      </c>
-      <c r="I227" s="35" t="s">
-        <v>750</v>
-      </c>
       <c r="J227" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N227" s="7">
         <v>16</v>
@@ -12316,31 +12295,31 @@
         <v>227</v>
       </c>
       <c r="B228" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C228" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D228" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="7">
+        <v>1</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G228" s="7">
+        <v>1</v>
+      </c>
+      <c r="H228" s="7">
+        <v>46</v>
+      </c>
+      <c r="I228" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="D228" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E228" s="7">
-        <v>1</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G228" s="7">
-        <v>1</v>
-      </c>
-      <c r="H228" s="7">
-        <v>45</v>
-      </c>
-      <c r="I228" s="35" t="s">
-        <v>752</v>
-      </c>
       <c r="J228" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N228" s="7">
         <v>16</v>
@@ -12351,31 +12330,31 @@
         <v>228</v>
       </c>
       <c r="B229" s="3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C229" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D229" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E229" s="7">
+        <v>1</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G229" s="7">
+        <v>1</v>
+      </c>
+      <c r="H229" s="7">
+        <v>47</v>
+      </c>
+      <c r="I229" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="D229" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E229" s="7">
-        <v>1</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G229" s="7">
-        <v>1</v>
-      </c>
-      <c r="H229" s="7">
-        <v>46</v>
-      </c>
-      <c r="I229" s="35" t="s">
-        <v>754</v>
-      </c>
       <c r="J229" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N229" s="7">
         <v>16</v>
@@ -12386,31 +12365,31 @@
         <v>229</v>
       </c>
       <c r="B230" s="3">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C230" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="D230" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E230" s="7">
+        <v>1</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G230" s="7">
+        <v>1</v>
+      </c>
+      <c r="H230" s="7">
+        <v>48</v>
+      </c>
+      <c r="I230" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="D230" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E230" s="7">
-        <v>1</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G230" s="7">
-        <v>1</v>
-      </c>
-      <c r="H230" s="7">
-        <v>47</v>
-      </c>
-      <c r="I230" s="35" t="s">
-        <v>756</v>
-      </c>
       <c r="J230" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N230" s="7">
         <v>16</v>
@@ -12421,31 +12400,31 @@
         <v>230</v>
       </c>
       <c r="B231" s="3">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C231" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D231" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E231" s="7">
+        <v>1</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G231" s="7">
+        <v>1</v>
+      </c>
+      <c r="H231" s="7">
+        <v>49</v>
+      </c>
+      <c r="I231" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="D231" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E231" s="7">
-        <v>1</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G231" s="7">
-        <v>1</v>
-      </c>
-      <c r="H231" s="7">
-        <v>48</v>
-      </c>
-      <c r="I231" s="35" t="s">
-        <v>758</v>
-      </c>
       <c r="J231" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N231" s="7">
         <v>16</v>
@@ -12456,31 +12435,31 @@
         <v>231</v>
       </c>
       <c r="B232" s="3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C232" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D232" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E232" s="7">
+        <v>1</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G232" s="7">
+        <v>1</v>
+      </c>
+      <c r="H232" s="7">
+        <v>50</v>
+      </c>
+      <c r="I232" s="35" t="s">
         <v>759</v>
       </c>
-      <c r="D232" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E232" s="7">
-        <v>1</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="G232" s="7">
-        <v>1</v>
-      </c>
-      <c r="H232" s="7">
-        <v>49</v>
-      </c>
-      <c r="I232" s="35" t="s">
-        <v>760</v>
-      </c>
       <c r="J232" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N232" s="7">
         <v>16</v>
@@ -12491,31 +12470,31 @@
         <v>232</v>
       </c>
       <c r="B233" s="3">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C233" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D233" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E233" s="7">
+        <v>1</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G233" s="7">
+        <v>1</v>
+      </c>
+      <c r="H233" s="7">
+        <v>51</v>
+      </c>
+      <c r="I233" s="35" t="s">
         <v>761</v>
       </c>
-      <c r="D233" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E233" s="7">
-        <v>1</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G233" s="7">
-        <v>1</v>
-      </c>
-      <c r="H233" s="7">
-        <v>50</v>
-      </c>
-      <c r="I233" s="35" t="s">
-        <v>762</v>
-      </c>
       <c r="J233" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N233" s="7">
         <v>16</v>
@@ -12526,31 +12505,31 @@
         <v>233</v>
       </c>
       <c r="B234" s="3">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C234" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="D234" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E234" s="7">
+        <v>1</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G234" s="7">
+        <v>1</v>
+      </c>
+      <c r="H234" s="7">
+        <v>52</v>
+      </c>
+      <c r="I234" s="35" t="s">
         <v>763</v>
       </c>
-      <c r="D234" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E234" s="7">
-        <v>1</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="G234" s="7">
-        <v>1</v>
-      </c>
-      <c r="H234" s="7">
-        <v>51</v>
-      </c>
-      <c r="I234" s="35" t="s">
-        <v>764</v>
-      </c>
       <c r="J234" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N234" s="7">
         <v>16</v>
@@ -12561,31 +12540,31 @@
         <v>234</v>
       </c>
       <c r="B235" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C235" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D235" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E235" s="7">
+        <v>1</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G235" s="7">
+        <v>1</v>
+      </c>
+      <c r="H235" s="7">
+        <v>53</v>
+      </c>
+      <c r="I235" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="D235" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E235" s="7">
-        <v>1</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="G235" s="7">
-        <v>1</v>
-      </c>
-      <c r="H235" s="7">
-        <v>52</v>
-      </c>
-      <c r="I235" s="35" t="s">
-        <v>766</v>
-      </c>
       <c r="J235" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N235" s="7">
         <v>16</v>
@@ -12596,31 +12575,31 @@
         <v>235</v>
       </c>
       <c r="B236" s="3">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C236" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D236" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E236" s="7">
+        <v>1</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G236" s="7">
+        <v>1</v>
+      </c>
+      <c r="H236" s="7">
+        <v>54</v>
+      </c>
+      <c r="I236" s="35" t="s">
         <v>767</v>
       </c>
-      <c r="D236" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E236" s="7">
-        <v>1</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G236" s="7">
-        <v>1</v>
-      </c>
-      <c r="H236" s="7">
-        <v>53</v>
-      </c>
-      <c r="I236" s="35" t="s">
-        <v>768</v>
-      </c>
       <c r="J236" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N236" s="7">
         <v>16</v>
@@ -12631,31 +12610,31 @@
         <v>236</v>
       </c>
       <c r="B237" s="3">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C237" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="D237" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E237" s="7">
+        <v>1</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G237" s="7">
+        <v>1</v>
+      </c>
+      <c r="H237" s="7">
+        <v>55</v>
+      </c>
+      <c r="I237" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="D237" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E237" s="7">
-        <v>1</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="G237" s="7">
-        <v>1</v>
-      </c>
-      <c r="H237" s="7">
-        <v>54</v>
-      </c>
-      <c r="I237" s="35" t="s">
-        <v>770</v>
-      </c>
       <c r="J237" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N237" s="7">
         <v>16</v>
@@ -12666,31 +12645,31 @@
         <v>237</v>
       </c>
       <c r="B238" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C238" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D238" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E238" s="7">
+        <v>1</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G238" s="7">
+        <v>1</v>
+      </c>
+      <c r="H238" s="7">
+        <v>56</v>
+      </c>
+      <c r="I238" s="35" t="s">
         <v>771</v>
       </c>
-      <c r="D238" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E238" s="7">
-        <v>1</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="G238" s="7">
-        <v>1</v>
-      </c>
-      <c r="H238" s="7">
-        <v>55</v>
-      </c>
-      <c r="I238" s="35" t="s">
-        <v>772</v>
-      </c>
       <c r="J238" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N238" s="7">
         <v>16</v>
@@ -12701,31 +12680,31 @@
         <v>238</v>
       </c>
       <c r="B239" s="3">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C239" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="D239" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E239" s="7">
+        <v>1</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G239" s="7">
+        <v>1</v>
+      </c>
+      <c r="H239" s="7">
+        <v>57</v>
+      </c>
+      <c r="I239" s="35" t="s">
         <v>773</v>
       </c>
-      <c r="D239" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E239" s="7">
-        <v>1</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="G239" s="7">
-        <v>1</v>
-      </c>
-      <c r="H239" s="7">
-        <v>56</v>
-      </c>
-      <c r="I239" s="35" t="s">
-        <v>774</v>
-      </c>
       <c r="J239" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N239" s="7">
         <v>16</v>
@@ -12736,31 +12715,31 @@
         <v>239</v>
       </c>
       <c r="B240" s="3">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D240" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E240" s="7">
+        <v>1</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G240" s="7">
+        <v>1</v>
+      </c>
+      <c r="H240" s="7">
+        <v>58</v>
+      </c>
+      <c r="I240" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="D240" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E240" s="7">
-        <v>1</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G240" s="7">
-        <v>1</v>
-      </c>
-      <c r="H240" s="7">
-        <v>57</v>
-      </c>
-      <c r="I240" s="35" t="s">
-        <v>776</v>
-      </c>
       <c r="J240" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N240" s="7">
         <v>16</v>
@@ -12771,31 +12750,31 @@
         <v>240</v>
       </c>
       <c r="B241" s="3">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C241" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D241" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E241" s="7">
+        <v>1</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G241" s="7">
+        <v>1</v>
+      </c>
+      <c r="H241" s="7">
+        <v>59</v>
+      </c>
+      <c r="I241" s="35" t="s">
         <v>777</v>
       </c>
-      <c r="D241" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E241" s="7">
-        <v>1</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G241" s="7">
-        <v>1</v>
-      </c>
-      <c r="H241" s="7">
-        <v>58</v>
-      </c>
-      <c r="I241" s="35" t="s">
-        <v>778</v>
-      </c>
       <c r="J241" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N241" s="7">
         <v>16</v>
@@ -12806,31 +12785,31 @@
         <v>241</v>
       </c>
       <c r="B242" s="3">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C242" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D242" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E242" s="7">
+        <v>1</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G242" s="7">
+        <v>1</v>
+      </c>
+      <c r="H242" s="7">
+        <v>60</v>
+      </c>
+      <c r="I242" s="35" t="s">
         <v>779</v>
       </c>
-      <c r="D242" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E242" s="7">
-        <v>1</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G242" s="7">
-        <v>1</v>
-      </c>
-      <c r="H242" s="7">
-        <v>59</v>
-      </c>
-      <c r="I242" s="35" t="s">
-        <v>780</v>
-      </c>
       <c r="J242" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N242" s="7">
         <v>16</v>
@@ -12841,31 +12820,31 @@
         <v>242</v>
       </c>
       <c r="B243" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C243" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D243" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E243" s="7">
+        <v>1</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="G243" s="7">
+        <v>1</v>
+      </c>
+      <c r="H243" s="7">
+        <v>61</v>
+      </c>
+      <c r="I243" s="35" t="s">
         <v>781</v>
       </c>
-      <c r="D243" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E243" s="7">
-        <v>1</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G243" s="7">
-        <v>1</v>
-      </c>
-      <c r="H243" s="7">
-        <v>60</v>
-      </c>
-      <c r="I243" s="35" t="s">
-        <v>782</v>
-      </c>
       <c r="J243" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N243" s="7">
         <v>16</v>
@@ -12876,31 +12855,31 @@
         <v>243</v>
       </c>
       <c r="B244" s="3">
-        <v>243</v>
-      </c>
-      <c r="C244" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C244" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="D244" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E244" s="7">
+        <v>1</v>
+      </c>
+      <c r="F244" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="G244" s="7">
+        <v>1</v>
+      </c>
+      <c r="H244" s="7">
+        <v>68</v>
+      </c>
+      <c r="I244" s="35" t="s">
         <v>783</v>
       </c>
-      <c r="D244" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E244" s="7">
-        <v>1</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="G244" s="7">
-        <v>1</v>
-      </c>
-      <c r="H244" s="7">
-        <v>61</v>
-      </c>
-      <c r="I244" s="35" t="s">
-        <v>784</v>
-      </c>
       <c r="J244" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N244" s="7">
         <v>16</v>
@@ -12911,31 +12890,31 @@
         <v>244</v>
       </c>
       <c r="B245" s="3">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C245" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="D245" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E245" s="7">
+        <v>1</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G245" s="7">
+        <v>1</v>
+      </c>
+      <c r="H245" s="7">
+        <v>63</v>
+      </c>
+      <c r="I245" s="35" t="s">
         <v>785</v>
       </c>
-      <c r="D245" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E245" s="7">
-        <v>1</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="G245" s="7">
-        <v>1</v>
-      </c>
-      <c r="H245" s="7">
-        <v>62</v>
-      </c>
-      <c r="I245" s="35" t="s">
-        <v>786</v>
-      </c>
       <c r="J245" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N245" s="7">
         <v>16</v>
@@ -12946,31 +12925,31 @@
         <v>245</v>
       </c>
       <c r="B246" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C246" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D246" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="7">
+        <v>1</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G246" s="7">
+        <v>1</v>
+      </c>
+      <c r="H246" s="7">
+        <v>64</v>
+      </c>
+      <c r="I246" s="35" t="s">
         <v>787</v>
       </c>
-      <c r="D246" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E246" s="7">
-        <v>1</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G246" s="7">
-        <v>1</v>
-      </c>
-      <c r="H246" s="7">
-        <v>63</v>
-      </c>
-      <c r="I246" s="35" t="s">
-        <v>788</v>
-      </c>
       <c r="J246" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N246" s="7">
         <v>16</v>
@@ -12981,31 +12960,31 @@
         <v>246</v>
       </c>
       <c r="B247" s="3">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C247" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="D247" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E247" s="7">
+        <v>1</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G247" s="7">
+        <v>1</v>
+      </c>
+      <c r="H247" s="7">
+        <v>65</v>
+      </c>
+      <c r="I247" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="D247" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E247" s="7">
-        <v>1</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="G247" s="7">
-        <v>1</v>
-      </c>
-      <c r="H247" s="7">
-        <v>64</v>
-      </c>
-      <c r="I247" s="35" t="s">
-        <v>790</v>
-      </c>
       <c r="J247" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N247" s="7">
         <v>16</v>
@@ -13016,31 +12995,31 @@
         <v>247</v>
       </c>
       <c r="B248" s="3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C248" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D248" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E248" s="7">
+        <v>1</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G248" s="7">
+        <v>1</v>
+      </c>
+      <c r="H248" s="7">
+        <v>66</v>
+      </c>
+      <c r="I248" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="D248" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E248" s="7">
-        <v>1</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="G248" s="7">
-        <v>1</v>
-      </c>
-      <c r="H248" s="7">
-        <v>65</v>
-      </c>
-      <c r="I248" s="35" t="s">
-        <v>792</v>
-      </c>
       <c r="J248" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N248" s="7">
         <v>16</v>
@@ -13051,31 +13030,31 @@
         <v>248</v>
       </c>
       <c r="B249" s="3">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C249" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="D249" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E249" s="7">
+        <v>1</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="G249" s="7">
+        <v>1</v>
+      </c>
+      <c r="H249" s="7">
+        <v>67</v>
+      </c>
+      <c r="I249" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="D249" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E249" s="7">
-        <v>1</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="G249" s="7">
-        <v>1</v>
-      </c>
-      <c r="H249" s="7">
-        <v>66</v>
-      </c>
-      <c r="I249" s="35" t="s">
-        <v>794</v>
-      </c>
       <c r="J249" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N249" s="7">
         <v>16</v>
@@ -13086,31 +13065,31 @@
         <v>249</v>
       </c>
       <c r="B250" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C250" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D250" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E250" s="7">
+        <v>1</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G250" s="7">
+        <v>1</v>
+      </c>
+      <c r="H250" s="7">
+        <v>68</v>
+      </c>
+      <c r="I250" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="D250" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E250" s="7">
-        <v>1</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="G250" s="7">
-        <v>1</v>
-      </c>
-      <c r="H250" s="7">
-        <v>67</v>
-      </c>
-      <c r="I250" s="35" t="s">
-        <v>796</v>
-      </c>
       <c r="J250" s="35" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N250" s="7">
         <v>16</v>
@@ -13121,31 +13100,31 @@
         <v>250</v>
       </c>
       <c r="B251" s="3">
-        <v>250</v>
-      </c>
-      <c r="C251" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="D251" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E251" s="7">
+        <v>1</v>
+      </c>
+      <c r="F251" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="G251" s="7">
+        <v>1</v>
+      </c>
+      <c r="H251" s="7">
+        <v>69</v>
+      </c>
+      <c r="I251" s="35" t="s">
         <v>797</v>
       </c>
-      <c r="D251" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E251" s="7">
-        <v>1</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G251" s="7">
-        <v>1</v>
-      </c>
-      <c r="H251" s="7">
-        <v>68</v>
-      </c>
-      <c r="I251" s="35" t="s">
+      <c r="J251" s="35" t="s">
         <v>798</v>
-      </c>
-      <c r="J251" s="35" t="s">
-        <v>738</v>
       </c>
       <c r="N251" s="7">
         <v>16</v>
@@ -13156,7 +13135,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C252" s="35" t="s">
         <v>799</v>
@@ -13167,20 +13146,20 @@
       <c r="E252" s="7">
         <v>1</v>
       </c>
-      <c r="F252" s="35" t="s">
-        <v>734</v>
+      <c r="F252" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="G252" s="7">
         <v>1</v>
       </c>
       <c r="H252" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I252" s="35" t="s">
         <v>800</v>
       </c>
       <c r="J252" s="35" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="N252" s="7">
         <v>16</v>
@@ -13191,7 +13170,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C253" s="35" t="s">
         <v>801</v>
@@ -13202,20 +13181,20 @@
       <c r="E253" s="7">
         <v>1</v>
       </c>
-      <c r="F253" s="35" t="s">
-        <v>640</v>
+      <c r="F253" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="G253" s="7">
         <v>1</v>
       </c>
       <c r="H253" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I253" s="35" t="s">
         <v>802</v>
       </c>
       <c r="J253" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N253" s="7">
         <v>16</v>
@@ -13226,31 +13205,31 @@
         <v>253</v>
       </c>
       <c r="B254" s="3">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C254" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="D254" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E254" s="7">
+        <v>1</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G254" s="7">
+        <v>1</v>
+      </c>
+      <c r="H254" s="7">
+        <v>72</v>
+      </c>
+      <c r="I254" s="35" t="s">
         <v>804</v>
       </c>
-      <c r="D254" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E254" s="7">
-        <v>1</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="G254" s="7">
-        <v>1</v>
-      </c>
-      <c r="H254" s="7">
-        <v>70</v>
-      </c>
-      <c r="I254" s="35" t="s">
-        <v>805</v>
-      </c>
       <c r="J254" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N254" s="7">
         <v>16</v>
@@ -13261,31 +13240,31 @@
         <v>254</v>
       </c>
       <c r="B255" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C255" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="D255" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="7">
+        <v>1</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G255" s="7">
+        <v>1</v>
+      </c>
+      <c r="H255" s="7">
+        <v>73</v>
+      </c>
+      <c r="I255" s="35" t="s">
         <v>806</v>
       </c>
-      <c r="D255" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E255" s="7">
-        <v>1</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="G255" s="7">
-        <v>1</v>
-      </c>
-      <c r="H255" s="7">
-        <v>71</v>
-      </c>
-      <c r="I255" s="35" t="s">
-        <v>807</v>
-      </c>
       <c r="J255" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N255" s="7">
         <v>16</v>
@@ -13296,31 +13275,31 @@
         <v>255</v>
       </c>
       <c r="B256" s="3">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C256" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="D256" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E256" s="7">
+        <v>1</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G256" s="7">
+        <v>1</v>
+      </c>
+      <c r="H256" s="7">
+        <v>74</v>
+      </c>
+      <c r="I256" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="D256" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E256" s="7">
-        <v>1</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="G256" s="7">
-        <v>1</v>
-      </c>
-      <c r="H256" s="7">
-        <v>72</v>
-      </c>
-      <c r="I256" s="35" t="s">
-        <v>809</v>
-      </c>
       <c r="J256" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N256" s="7">
         <v>16</v>
@@ -13331,31 +13310,31 @@
         <v>256</v>
       </c>
       <c r="B257" s="3">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C257" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="D257" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E257" s="7">
+        <v>1</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G257" s="7">
+        <v>1</v>
+      </c>
+      <c r="H257" s="7">
+        <v>75</v>
+      </c>
+      <c r="I257" s="35" t="s">
         <v>810</v>
       </c>
-      <c r="D257" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E257" s="7">
-        <v>1</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="G257" s="7">
-        <v>1</v>
-      </c>
-      <c r="H257" s="7">
-        <v>73</v>
-      </c>
-      <c r="I257" s="35" t="s">
-        <v>811</v>
-      </c>
       <c r="J257" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N257" s="7">
         <v>16</v>
@@ -13366,31 +13345,31 @@
         <v>257</v>
       </c>
       <c r="B258" s="3">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C258" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="D258" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="7">
+        <v>1</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="G258" s="7">
+        <v>1</v>
+      </c>
+      <c r="H258" s="7">
+        <v>76</v>
+      </c>
+      <c r="I258" s="35" t="s">
         <v>812</v>
       </c>
-      <c r="D258" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E258" s="7">
-        <v>1</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G258" s="7">
-        <v>1</v>
-      </c>
-      <c r="H258" s="7">
-        <v>74</v>
-      </c>
-      <c r="I258" s="35" t="s">
-        <v>813</v>
-      </c>
       <c r="J258" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N258" s="7">
         <v>16</v>
@@ -13401,31 +13380,31 @@
         <v>258</v>
       </c>
       <c r="B259" s="3">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C259" s="35" t="s">
+        <v>813</v>
+      </c>
+      <c r="D259" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E259" s="7">
+        <v>1</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G259" s="7">
+        <v>1</v>
+      </c>
+      <c r="H259" s="7">
+        <v>77</v>
+      </c>
+      <c r="I259" s="35" t="s">
         <v>814</v>
       </c>
-      <c r="D259" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E259" s="7">
-        <v>1</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G259" s="7">
-        <v>1</v>
-      </c>
-      <c r="H259" s="7">
-        <v>75</v>
-      </c>
-      <c r="I259" s="35" t="s">
-        <v>815</v>
-      </c>
       <c r="J259" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N259" s="7">
         <v>16</v>
@@ -13436,31 +13415,31 @@
         <v>259</v>
       </c>
       <c r="B260" s="3">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C260" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="D260" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E260" s="7">
+        <v>1</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G260" s="7">
+        <v>1</v>
+      </c>
+      <c r="H260" s="7">
+        <v>78</v>
+      </c>
+      <c r="I260" s="35" t="s">
         <v>816</v>
       </c>
-      <c r="D260" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E260" s="7">
-        <v>1</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G260" s="7">
-        <v>1</v>
-      </c>
-      <c r="H260" s="7">
-        <v>76</v>
-      </c>
-      <c r="I260" s="35" t="s">
-        <v>817</v>
-      </c>
       <c r="J260" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N260" s="7">
         <v>16</v>
@@ -13471,31 +13450,31 @@
         <v>260</v>
       </c>
       <c r="B261" s="3">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C261" s="35" t="s">
+        <v>817</v>
+      </c>
+      <c r="D261" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E261" s="7">
+        <v>1</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G261" s="7">
+        <v>1</v>
+      </c>
+      <c r="H261" s="7">
+        <v>79</v>
+      </c>
+      <c r="I261" s="35" t="s">
         <v>818</v>
       </c>
-      <c r="D261" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E261" s="7">
-        <v>1</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G261" s="7">
-        <v>1</v>
-      </c>
-      <c r="H261" s="7">
-        <v>77</v>
-      </c>
-      <c r="I261" s="35" t="s">
-        <v>819</v>
-      </c>
       <c r="J261" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N261" s="7">
         <v>16</v>
@@ -13506,31 +13485,31 @@
         <v>261</v>
       </c>
       <c r="B262" s="3">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C262" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="D262" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E262" s="7">
+        <v>1</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G262" s="7">
+        <v>1</v>
+      </c>
+      <c r="H262" s="7">
+        <v>80</v>
+      </c>
+      <c r="I262" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="D262" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E262" s="7">
-        <v>1</v>
-      </c>
-      <c r="F262" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G262" s="7">
-        <v>1</v>
-      </c>
-      <c r="H262" s="7">
-        <v>78</v>
-      </c>
-      <c r="I262" s="35" t="s">
-        <v>821</v>
-      </c>
       <c r="J262" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N262" s="7">
         <v>16</v>
@@ -13541,31 +13520,31 @@
         <v>262</v>
       </c>
       <c r="B263" s="3">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C263" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="D263" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E263" s="7">
+        <v>1</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G263" s="7">
+        <v>1</v>
+      </c>
+      <c r="H263" s="7">
+        <v>81</v>
+      </c>
+      <c r="I263" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="D263" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E263" s="7">
-        <v>1</v>
-      </c>
-      <c r="F263" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G263" s="7">
-        <v>1</v>
-      </c>
-      <c r="H263" s="7">
-        <v>79</v>
-      </c>
-      <c r="I263" s="35" t="s">
-        <v>823</v>
-      </c>
       <c r="J263" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N263" s="7">
         <v>16</v>
@@ -13576,31 +13555,31 @@
         <v>263</v>
       </c>
       <c r="B264" s="3">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C264" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="D264" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E264" s="7">
+        <v>1</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G264" s="7">
+        <v>1</v>
+      </c>
+      <c r="H264" s="7">
+        <v>82</v>
+      </c>
+      <c r="I264" s="35" t="s">
         <v>824</v>
       </c>
-      <c r="D264" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E264" s="7">
-        <v>1</v>
-      </c>
-      <c r="F264" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="G264" s="7">
-        <v>1</v>
-      </c>
-      <c r="H264" s="7">
-        <v>80</v>
-      </c>
-      <c r="I264" s="35" t="s">
-        <v>825</v>
-      </c>
       <c r="J264" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N264" s="7">
         <v>16</v>
@@ -13611,31 +13590,31 @@
         <v>264</v>
       </c>
       <c r="B265" s="3">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C265" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="D265" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E265" s="7">
+        <v>1</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G265" s="7">
+        <v>1</v>
+      </c>
+      <c r="H265" s="7">
+        <v>83</v>
+      </c>
+      <c r="I265" s="35" t="s">
         <v>826</v>
       </c>
-      <c r="D265" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E265" s="7">
-        <v>1</v>
-      </c>
-      <c r="F265" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G265" s="7">
-        <v>1</v>
-      </c>
-      <c r="H265" s="7">
-        <v>81</v>
-      </c>
-      <c r="I265" s="35" t="s">
-        <v>827</v>
-      </c>
       <c r="J265" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N265" s="7">
         <v>16</v>
@@ -13646,31 +13625,31 @@
         <v>265</v>
       </c>
       <c r="B266" s="3">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C266" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="D266" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E266" s="7">
+        <v>1</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G266" s="7">
+        <v>1</v>
+      </c>
+      <c r="H266" s="7">
+        <v>84</v>
+      </c>
+      <c r="I266" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="D266" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E266" s="7">
-        <v>1</v>
-      </c>
-      <c r="F266" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="G266" s="7">
-        <v>1</v>
-      </c>
-      <c r="H266" s="7">
-        <v>82</v>
-      </c>
-      <c r="I266" s="35" t="s">
-        <v>829</v>
-      </c>
       <c r="J266" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N266" s="7">
         <v>16</v>
@@ -13681,31 +13660,31 @@
         <v>266</v>
       </c>
       <c r="B267" s="3">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C267" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="D267" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E267" s="7">
+        <v>1</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G267" s="7">
+        <v>1</v>
+      </c>
+      <c r="H267" s="7">
+        <v>85</v>
+      </c>
+      <c r="I267" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="D267" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E267" s="7">
-        <v>1</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="G267" s="7">
-        <v>1</v>
-      </c>
-      <c r="H267" s="7">
-        <v>83</v>
-      </c>
-      <c r="I267" s="35" t="s">
-        <v>831</v>
-      </c>
       <c r="J267" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N267" s="7">
         <v>16</v>
@@ -13716,31 +13695,31 @@
         <v>267</v>
       </c>
       <c r="B268" s="3">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C268" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="D268" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E268" s="7">
+        <v>1</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G268" s="7">
+        <v>1</v>
+      </c>
+      <c r="H268" s="7">
+        <v>86</v>
+      </c>
+      <c r="I268" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="D268" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E268" s="7">
-        <v>1</v>
-      </c>
-      <c r="F268" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G268" s="7">
-        <v>1</v>
-      </c>
-      <c r="H268" s="7">
-        <v>84</v>
-      </c>
-      <c r="I268" s="35" t="s">
-        <v>833</v>
-      </c>
       <c r="J268" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N268" s="7">
         <v>16</v>
@@ -13751,31 +13730,31 @@
         <v>268</v>
       </c>
       <c r="B269" s="3">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C269" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="D269" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E269" s="7">
+        <v>1</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G269" s="7">
+        <v>1</v>
+      </c>
+      <c r="H269" s="7">
+        <v>87</v>
+      </c>
+      <c r="I269" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="D269" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E269" s="7">
-        <v>1</v>
-      </c>
-      <c r="F269" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="G269" s="7">
-        <v>1</v>
-      </c>
-      <c r="H269" s="7">
-        <v>85</v>
-      </c>
-      <c r="I269" s="35" t="s">
-        <v>835</v>
-      </c>
       <c r="J269" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N269" s="7">
         <v>16</v>
@@ -13786,31 +13765,31 @@
         <v>269</v>
       </c>
       <c r="B270" s="3">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C270" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="D270" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E270" s="7">
+        <v>1</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G270" s="7">
+        <v>1</v>
+      </c>
+      <c r="H270" s="7">
+        <v>88</v>
+      </c>
+      <c r="I270" s="35" t="s">
         <v>836</v>
       </c>
-      <c r="D270" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E270" s="7">
-        <v>1</v>
-      </c>
-      <c r="F270" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="G270" s="7">
-        <v>1</v>
-      </c>
-      <c r="H270" s="7">
-        <v>86</v>
-      </c>
-      <c r="I270" s="35" t="s">
-        <v>837</v>
-      </c>
       <c r="J270" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N270" s="7">
         <v>16</v>
@@ -13821,31 +13800,31 @@
         <v>270</v>
       </c>
       <c r="B271" s="3">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C271" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="D271" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E271" s="7">
+        <v>1</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G271" s="7">
+        <v>1</v>
+      </c>
+      <c r="H271" s="7">
+        <v>89</v>
+      </c>
+      <c r="I271" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="D271" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E271" s="7">
-        <v>1</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="G271" s="7">
-        <v>1</v>
-      </c>
-      <c r="H271" s="7">
-        <v>87</v>
-      </c>
-      <c r="I271" s="35" t="s">
-        <v>839</v>
-      </c>
       <c r="J271" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N271" s="7">
         <v>16</v>
@@ -13856,31 +13835,31 @@
         <v>271</v>
       </c>
       <c r="B272" s="3">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C272" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="D272" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E272" s="7">
+        <v>1</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G272" s="7">
+        <v>1</v>
+      </c>
+      <c r="H272" s="7">
+        <v>90</v>
+      </c>
+      <c r="I272" s="35" t="s">
         <v>840</v>
       </c>
-      <c r="D272" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E272" s="7">
-        <v>1</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G272" s="7">
-        <v>1</v>
-      </c>
-      <c r="H272" s="7">
-        <v>88</v>
-      </c>
-      <c r="I272" s="35" t="s">
-        <v>841</v>
-      </c>
       <c r="J272" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N272" s="7">
         <v>16</v>
@@ -13891,31 +13870,31 @@
         <v>272</v>
       </c>
       <c r="B273" s="3">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C273" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="D273" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E273" s="7">
+        <v>1</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G273" s="7">
+        <v>1</v>
+      </c>
+      <c r="H273" s="7">
+        <v>91</v>
+      </c>
+      <c r="I273" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="D273" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E273" s="7">
-        <v>1</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G273" s="7">
-        <v>1</v>
-      </c>
-      <c r="H273" s="7">
-        <v>89</v>
-      </c>
-      <c r="I273" s="35" t="s">
-        <v>843</v>
-      </c>
       <c r="J273" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N273" s="7">
         <v>16</v>
@@ -13926,31 +13905,31 @@
         <v>273</v>
       </c>
       <c r="B274" s="3">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C274" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="D274" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E274" s="7">
+        <v>1</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="G274" s="7">
+        <v>1</v>
+      </c>
+      <c r="H274" s="7">
+        <v>92</v>
+      </c>
+      <c r="I274" s="35" t="s">
         <v>844</v>
       </c>
-      <c r="D274" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E274" s="7">
-        <v>1</v>
-      </c>
-      <c r="F274" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G274" s="7">
-        <v>1</v>
-      </c>
-      <c r="H274" s="7">
-        <v>90</v>
-      </c>
-      <c r="I274" s="35" t="s">
-        <v>845</v>
-      </c>
       <c r="J274" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N274" s="7">
         <v>16</v>
@@ -13961,31 +13940,31 @@
         <v>274</v>
       </c>
       <c r="B275" s="3">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C275" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="D275" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E275" s="7">
+        <v>1</v>
+      </c>
+      <c r="F275" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="G275" s="7">
+        <v>1</v>
+      </c>
+      <c r="H275" s="7">
+        <v>99</v>
+      </c>
+      <c r="I275" s="35" t="s">
         <v>846</v>
       </c>
-      <c r="D275" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E275" s="7">
-        <v>1</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G275" s="7">
-        <v>1</v>
-      </c>
-      <c r="H275" s="7">
-        <v>91</v>
-      </c>
-      <c r="I275" s="35" t="s">
-        <v>847</v>
-      </c>
       <c r="J275" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N275" s="7">
         <v>16</v>
@@ -13996,31 +13975,31 @@
         <v>275</v>
       </c>
       <c r="B276" s="3">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C276" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="D276" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E276" s="7">
+        <v>1</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G276" s="7">
+        <v>1</v>
+      </c>
+      <c r="H276" s="7">
+        <v>94</v>
+      </c>
+      <c r="I276" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="D276" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E276" s="7">
-        <v>1</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="G276" s="7">
-        <v>1</v>
-      </c>
-      <c r="H276" s="7">
-        <v>92</v>
-      </c>
-      <c r="I276" s="35" t="s">
-        <v>849</v>
-      </c>
       <c r="J276" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N276" s="7">
         <v>16</v>
@@ -14031,31 +14010,31 @@
         <v>276</v>
       </c>
       <c r="B277" s="3">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C277" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="D277" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E277" s="7">
+        <v>1</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G277" s="7">
+        <v>1</v>
+      </c>
+      <c r="H277" s="7">
+        <v>95</v>
+      </c>
+      <c r="I277" s="35" t="s">
         <v>850</v>
       </c>
-      <c r="D277" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E277" s="7">
-        <v>1</v>
-      </c>
-      <c r="F277" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="G277" s="7">
-        <v>1</v>
-      </c>
-      <c r="H277" s="7">
-        <v>93</v>
-      </c>
-      <c r="I277" s="35" t="s">
-        <v>851</v>
-      </c>
       <c r="J277" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N277" s="7">
         <v>16</v>
@@ -14066,31 +14045,31 @@
         <v>277</v>
       </c>
       <c r="B278" s="3">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C278" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="D278" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E278" s="7">
+        <v>1</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G278" s="7">
+        <v>1</v>
+      </c>
+      <c r="H278" s="7">
+        <v>96</v>
+      </c>
+      <c r="I278" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="D278" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E278" s="7">
-        <v>1</v>
-      </c>
-      <c r="F278" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G278" s="7">
-        <v>1</v>
-      </c>
-      <c r="H278" s="7">
-        <v>94</v>
-      </c>
-      <c r="I278" s="35" t="s">
-        <v>853</v>
-      </c>
       <c r="J278" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N278" s="7">
         <v>16</v>
@@ -14101,31 +14080,31 @@
         <v>278</v>
       </c>
       <c r="B279" s="3">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C279" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="D279" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E279" s="7">
+        <v>1</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G279" s="7">
+        <v>1</v>
+      </c>
+      <c r="H279" s="7">
+        <v>97</v>
+      </c>
+      <c r="I279" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="D279" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E279" s="7">
-        <v>1</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="G279" s="7">
-        <v>1</v>
-      </c>
-      <c r="H279" s="7">
-        <v>95</v>
-      </c>
-      <c r="I279" s="35" t="s">
-        <v>855</v>
-      </c>
       <c r="J279" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N279" s="7">
         <v>16</v>
@@ -14136,31 +14115,31 @@
         <v>279</v>
       </c>
       <c r="B280" s="3">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C280" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="D280" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E280" s="7">
+        <v>1</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="G280" s="7">
+        <v>1</v>
+      </c>
+      <c r="H280" s="7">
+        <v>98</v>
+      </c>
+      <c r="I280" s="35" t="s">
         <v>856</v>
       </c>
-      <c r="D280" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E280" s="7">
-        <v>1</v>
-      </c>
-      <c r="F280" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="G280" s="7">
-        <v>1</v>
-      </c>
-      <c r="H280" s="7">
-        <v>96</v>
-      </c>
-      <c r="I280" s="35" t="s">
-        <v>857</v>
-      </c>
       <c r="J280" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N280" s="7">
         <v>16</v>
@@ -14171,139 +14150,130 @@
         <v>280</v>
       </c>
       <c r="B281" s="3">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C281" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="D281" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E281" s="7">
+        <v>1</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G281" s="7">
+        <v>1</v>
+      </c>
+      <c r="H281" s="7">
+        <v>99</v>
+      </c>
+      <c r="I281" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="D281" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E281" s="7">
-        <v>1</v>
-      </c>
-      <c r="F281" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="G281" s="7">
-        <v>1</v>
-      </c>
-      <c r="H281" s="7">
-        <v>97</v>
-      </c>
-      <c r="I281" s="35" t="s">
-        <v>859</v>
-      </c>
       <c r="J281" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N281" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" s="3" customFormat="1" spans="1:10">
       <c r="A282" s="3">
         <v>281</v>
       </c>
       <c r="B282" s="3">
-        <v>281</v>
-      </c>
-      <c r="C282" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D282" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F282" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="D282" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E282" s="7">
-        <v>1</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="G282" s="7">
-        <v>1</v>
-      </c>
-      <c r="H282" s="7">
-        <v>98</v>
-      </c>
-      <c r="I282" s="35" t="s">
+      <c r="G282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>33</v>
+      </c>
+      <c r="I282" s="24" t="s">
         <v>861</v>
       </c>
-      <c r="J282" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="N282" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14">
+      <c r="J282" s="24" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="283" s="3" customFormat="1" spans="1:10">
       <c r="A283" s="3">
         <v>282</v>
       </c>
       <c r="B283" s="3">
-        <v>282</v>
-      </c>
-      <c r="C283" s="35" t="s">
-        <v>862</v>
-      </c>
-      <c r="D283" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E283" s="7">
-        <v>1</v>
-      </c>
-      <c r="F283" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G283" s="7">
-        <v>1</v>
-      </c>
-      <c r="H283" s="7">
-        <v>99</v>
-      </c>
-      <c r="I283" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="J283" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="N283" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14">
+      <c r="D283" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>33</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="284" s="3" customFormat="1" spans="1:10">
       <c r="A284" s="3">
         <v>283</v>
       </c>
       <c r="B284" s="3">
-        <v>283</v>
-      </c>
-      <c r="C284" s="35" t="s">
-        <v>864</v>
-      </c>
-      <c r="D284" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E284" s="7">
-        <v>1</v>
-      </c>
-      <c r="F284" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="G284" s="7">
-        <v>1</v>
-      </c>
-      <c r="H284" s="7">
-        <v>99</v>
-      </c>
-      <c r="I284" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>865</v>
       </c>
-      <c r="J284" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="N284" s="7">
-        <v>16</v>
+      <c r="D284" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>33</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="285" s="3" customFormat="1" spans="1:10">
@@ -14311,10 +14281,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D285" s="3">
         <v>-1</v>
@@ -14323,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G285" s="3">
         <v>0</v>
@@ -14332,10 +14302,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="24" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="1" spans="1:10">
@@ -14343,10 +14313,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="3">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D286" s="3">
         <v>-1</v>
@@ -14354,8 +14324,8 @@
       <c r="E286" s="3">
         <v>1</v>
       </c>
-      <c r="F286" s="3" t="s">
-        <v>575</v>
+      <c r="F286" s="24" t="s">
+        <v>874</v>
       </c>
       <c r="G286" s="3">
         <v>0</v>
@@ -14363,11 +14333,11 @@
       <c r="H286" s="3">
         <v>33</v>
       </c>
-      <c r="I286" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="J286" s="3" t="s">
-        <v>871</v>
+      <c r="I286" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="J286" s="24" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="1" spans="1:10">
@@ -14375,10 +14345,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="3">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D287" s="3">
         <v>-1</v>
@@ -14386,8 +14356,8 @@
       <c r="E287" s="3">
         <v>1</v>
       </c>
-      <c r="F287" s="3" t="s">
-        <v>873</v>
+      <c r="F287" s="24" t="s">
+        <v>464</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -14395,54 +14365,54 @@
       <c r="H287" s="3">
         <v>33</v>
       </c>
-      <c r="I287" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="J287" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="288" s="3" customFormat="1" spans="1:10">
+      <c r="I287" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="J287" s="24" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="288" s="8" customFormat="1" spans="1:10">
       <c r="A288" s="3">
         <v>287</v>
       </c>
-      <c r="B288" s="3">
-        <v>287</v>
-      </c>
-      <c r="C288" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="D288" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E288" s="3">
-        <v>1</v>
-      </c>
-      <c r="F288" s="24" t="s">
-        <v>877</v>
-      </c>
-      <c r="G288" s="3">
+      <c r="B288" s="8">
+        <v>290</v>
+      </c>
+      <c r="C288" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="D288" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="8">
+        <v>1</v>
+      </c>
+      <c r="F288" s="30" t="s">
+        <v>880</v>
+      </c>
+      <c r="G288" s="8">
         <v>0</v>
       </c>
-      <c r="H288" s="3">
+      <c r="H288" s="8">
         <v>33</v>
       </c>
-      <c r="I288" s="24" t="s">
-        <v>878</v>
-      </c>
-      <c r="J288" s="24" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="289" s="3" customFormat="1" spans="1:10">
+      <c r="I288" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="J288" s="30" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="289" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A289" s="3">
         <v>288</v>
       </c>
       <c r="B289" s="3">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D289" s="3">
         <v>-1</v>
@@ -14451,30 +14421,33 @@
         <v>1</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G289" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" s="3">
         <v>33</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>882</v>
+        <v>621</v>
       </c>
       <c r="J289" s="24" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="290" s="3" customFormat="1" spans="1:10">
+        <v>884</v>
+      </c>
+      <c r="L289" s="38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="290" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A290" s="3">
         <v>289</v>
       </c>
       <c r="B290" s="3">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D290" s="3">
         <v>-1</v>
@@ -14483,62 +14456,68 @@
         <v>1</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>464</v>
+        <v>887</v>
       </c>
       <c r="G290" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" s="3">
         <v>33</v>
       </c>
       <c r="I290" s="24" t="s">
-        <v>527</v>
+        <v>617</v>
       </c>
       <c r="J290" s="24" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="291" s="8" customFormat="1" spans="1:10">
-      <c r="A291" s="8">
+        <v>888</v>
+      </c>
+      <c r="L290" s="38" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="291" s="3" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A291" s="3">
         <v>290</v>
       </c>
-      <c r="B291" s="8">
-        <v>290</v>
-      </c>
-      <c r="C291" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="D291" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="8">
-        <v>1</v>
-      </c>
-      <c r="F291" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="G291" s="8">
-        <v>0</v>
-      </c>
-      <c r="H291" s="8">
+      <c r="B291" s="3">
+        <v>293</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="D291" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1</v>
+      </c>
+      <c r="F291" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="G291" s="3">
+        <v>1</v>
+      </c>
+      <c r="H291" s="3">
         <v>33</v>
       </c>
-      <c r="I291" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="J291" s="30" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
+      <c r="I291" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="J291" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="L291" s="38" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="292" s="3" customFormat="1" spans="1:10">
       <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="B292" s="3">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D292" s="3">
         <v>-1</v>
@@ -14546,8 +14525,8 @@
       <c r="E292" s="3">
         <v>1</v>
       </c>
-      <c r="F292" s="24" t="s">
-        <v>890</v>
+      <c r="F292" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="G292" s="3">
         <v>1</v>
@@ -14556,24 +14535,21 @@
         <v>33</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>621</v>
+        <v>896</v>
       </c>
       <c r="J292" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="L292" s="37" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="293" s="3" customFormat="1" spans="1:10">
       <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="B293" s="3">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D293" s="3">
         <v>-1</v>
@@ -14581,8 +14557,8 @@
       <c r="E293" s="3">
         <v>1</v>
       </c>
-      <c r="F293" s="24" t="s">
-        <v>894</v>
+      <c r="F293" s="3" t="s">
+        <v>899</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
@@ -14591,24 +14567,21 @@
         <v>33</v>
       </c>
       <c r="I293" s="24" t="s">
-        <v>617</v>
+        <v>900</v>
       </c>
       <c r="J293" s="24" t="s">
-        <v>895</v>
-      </c>
-      <c r="L293" s="37" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="294" s="3" customFormat="1" spans="1:10">
       <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="B294" s="3">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D294" s="3">
         <v>-1</v>
@@ -14616,8 +14589,8 @@
       <c r="E294" s="3">
         <v>1</v>
       </c>
-      <c r="F294" s="24" t="s">
-        <v>898</v>
+      <c r="F294" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="G294" s="3">
         <v>1</v>
@@ -14626,13 +14599,10 @@
         <v>33</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>612</v>
+        <v>903</v>
       </c>
       <c r="J294" s="24" t="s">
-        <v>899</v>
-      </c>
-      <c r="L294" s="37" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="1" spans="1:10">
@@ -14640,10 +14610,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="3">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D295" s="3">
         <v>-1</v>
@@ -14652,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G295" s="3">
         <v>1</v>
@@ -14661,21 +14631,21 @@
         <v>33</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="J295" s="24" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="296" s="3" customFormat="1" spans="1:10">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="296" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A296" s="3">
         <v>295</v>
       </c>
       <c r="B296" s="3">
-        <v>295</v>
-      </c>
-      <c r="C296" s="24" t="s">
-        <v>905</v>
+        <v>298</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>907</v>
       </c>
       <c r="D296" s="3">
         <v>-1</v>
@@ -14683,31 +14653,31 @@
       <c r="E296" s="3">
         <v>1</v>
       </c>
-      <c r="F296" s="3" t="s">
-        <v>906</v>
+      <c r="F296" s="31" t="s">
+        <v>908</v>
       </c>
       <c r="G296" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H296" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I296" s="24" t="s">
-        <v>907</v>
+        <v>337</v>
       </c>
       <c r="J296" s="24" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="297" s="3" customFormat="1" spans="1:10">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="297" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A297" s="3">
         <v>296</v>
       </c>
       <c r="B297" s="3">
-        <v>296</v>
-      </c>
-      <c r="C297" s="24" t="s">
-        <v>908</v>
+        <v>299</v>
+      </c>
+      <c r="C297" s="25" t="s">
+        <v>910</v>
       </c>
       <c r="D297" s="3">
         <v>-1</v>
@@ -14715,31 +14685,31 @@
       <c r="E297" s="3">
         <v>1</v>
       </c>
-      <c r="F297" s="3" t="s">
-        <v>909</v>
+      <c r="F297" s="24" t="s">
+        <v>911</v>
       </c>
       <c r="G297" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I297" s="24" t="s">
-        <v>910</v>
+        <v>346</v>
       </c>
       <c r="J297" s="24" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="298" s="3" customFormat="1" spans="1:10">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="298" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A298" s="3">
         <v>297</v>
       </c>
       <c r="B298" s="3">
-        <v>297</v>
-      </c>
-      <c r="C298" s="24" t="s">
-        <v>911</v>
+        <v>300</v>
+      </c>
+      <c r="C298" s="25" t="s">
+        <v>913</v>
       </c>
       <c r="D298" s="3">
         <v>-1</v>
@@ -14747,20 +14717,20 @@
       <c r="E298" s="3">
         <v>1</v>
       </c>
-      <c r="F298" s="3" t="s">
-        <v>912</v>
+      <c r="F298" s="24" t="s">
+        <v>914</v>
       </c>
       <c r="G298" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>913</v>
+        <v>330</v>
       </c>
       <c r="J298" s="24" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14768,10 +14738,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="3">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D299" s="3">
         <v>-1</v>
@@ -14779,8 +14749,8 @@
       <c r="E299" s="3">
         <v>1</v>
       </c>
-      <c r="F299" s="31" t="s">
-        <v>915</v>
+      <c r="F299" s="24" t="s">
+        <v>917</v>
       </c>
       <c r="G299" s="3">
         <v>0</v>
@@ -14789,10 +14759,10 @@
         <v>1</v>
       </c>
       <c r="I299" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J299" s="24" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14800,10 +14770,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D300" s="3">
         <v>-1</v>
@@ -14811,8 +14781,8 @@
       <c r="E300" s="3">
         <v>1</v>
       </c>
-      <c r="F300" s="24" t="s">
-        <v>918</v>
+      <c r="F300" s="31" t="s">
+        <v>920</v>
       </c>
       <c r="G300" s="3">
         <v>0</v>
@@ -14821,10 +14791,10 @@
         <v>1</v>
       </c>
       <c r="I300" s="24" t="s">
-        <v>346</v>
+        <v>921</v>
       </c>
       <c r="J300" s="24" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14832,10 +14802,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D301" s="3">
         <v>-1</v>
@@ -14843,8 +14813,8 @@
       <c r="E301" s="3">
         <v>1</v>
       </c>
-      <c r="F301" s="24" t="s">
-        <v>921</v>
+      <c r="F301" s="31" t="s">
+        <v>924</v>
       </c>
       <c r="G301" s="3">
         <v>0</v>
@@ -14853,10 +14823,10 @@
         <v>1</v>
       </c>
       <c r="I301" s="24" t="s">
-        <v>330</v>
+        <v>925</v>
       </c>
       <c r="J301" s="24" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14864,10 +14834,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="D302" s="3">
         <v>-1</v>
@@ -14875,8 +14845,8 @@
       <c r="E302" s="3">
         <v>1</v>
       </c>
-      <c r="F302" s="24" t="s">
-        <v>924</v>
+      <c r="F302" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="G302" s="3">
         <v>0</v>
@@ -14885,10 +14855,10 @@
         <v>1</v>
       </c>
       <c r="I302" s="24" t="s">
-        <v>334</v>
+        <v>929</v>
       </c>
       <c r="J302" s="24" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14896,10 +14866,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="D303" s="3">
         <v>-1</v>
@@ -14907,8 +14877,8 @@
       <c r="E303" s="3">
         <v>1</v>
       </c>
-      <c r="F303" s="31" t="s">
-        <v>927</v>
+      <c r="F303" s="24" t="s">
+        <v>931</v>
       </c>
       <c r="G303" s="3">
         <v>0</v>
@@ -14917,10 +14887,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="24" t="s">
-        <v>928</v>
+        <v>875</v>
       </c>
       <c r="J303" s="24" t="s">
-        <v>929</v>
+        <v>466</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
@@ -14928,10 +14898,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D304" s="3">
         <v>-1</v>
@@ -14939,8 +14909,8 @@
       <c r="E304" s="3">
         <v>1</v>
       </c>
-      <c r="F304" s="31" t="s">
-        <v>931</v>
+      <c r="F304" s="24" t="s">
+        <v>933</v>
       </c>
       <c r="G304" s="3">
         <v>0</v>
@@ -14949,21 +14919,21 @@
         <v>1</v>
       </c>
       <c r="I304" s="24" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J304" s="24" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="305" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A305" s="3">
         <v>304</v>
       </c>
       <c r="B305" s="3">
-        <v>304</v>
-      </c>
-      <c r="C305" s="25" t="s">
-        <v>934</v>
+        <v>307</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>935</v>
       </c>
       <c r="D305" s="3">
         <v>-1</v>
@@ -14971,31 +14941,37 @@
       <c r="E305" s="3">
         <v>1</v>
       </c>
-      <c r="F305" s="31" t="s">
-        <v>935</v>
+      <c r="F305" s="25" t="s">
+        <v>936</v>
       </c>
       <c r="G305" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" s="3">
         <v>1</v>
       </c>
       <c r="I305" s="24" t="s">
-        <v>936</v>
-      </c>
-      <c r="J305" s="24" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
+        <v>937</v>
+      </c>
+      <c r="J305" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="L305" s="40" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="306" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A306" s="3">
         <v>305</v>
       </c>
       <c r="B306" s="3">
-        <v>305</v>
-      </c>
-      <c r="C306" s="25" t="s">
-        <v>937</v>
+        <v>308</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>941</v>
       </c>
       <c r="D306" s="3">
         <v>-1</v>
@@ -15003,52 +14979,64 @@
       <c r="E306" s="3">
         <v>1</v>
       </c>
-      <c r="F306" s="24" t="s">
-        <v>938</v>
+      <c r="F306" s="25" t="s">
+        <v>942</v>
       </c>
       <c r="G306" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306" s="3">
         <v>1</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="J306" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
+        <v>943</v>
+      </c>
+      <c r="J306" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="K306" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="L306" s="40" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="307" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A307" s="3">
         <v>306</v>
       </c>
       <c r="B307" s="3">
-        <v>306</v>
-      </c>
-      <c r="C307" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="D307" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1</v>
+      </c>
+      <c r="F307" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="G307" s="3">
+        <v>1</v>
+      </c>
+      <c r="H307" s="3">
+        <v>1</v>
+      </c>
+      <c r="I307" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="J307" s="39" t="s">
+        <v>948</v>
+      </c>
+      <c r="K307" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="D307" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E307" s="3">
-        <v>1</v>
-      </c>
-      <c r="F307" s="24" t="s">
+      <c r="L307" s="40" t="s">
         <v>940</v>
-      </c>
-      <c r="G307" s="3">
-        <v>0</v>
-      </c>
-      <c r="H307" s="3">
-        <v>1</v>
-      </c>
-      <c r="I307" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="J307" s="24" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15056,10 +15044,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="3">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D308" s="3">
         <v>-1</v>
@@ -15068,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="G308" s="3">
         <v>1</v>
@@ -15077,16 +15065,16 @@
         <v>1</v>
       </c>
       <c r="I308" s="24" t="s">
-        <v>944</v>
-      </c>
-      <c r="J308" s="38" t="s">
-        <v>945</v>
+        <v>951</v>
+      </c>
+      <c r="J308" s="39" t="s">
+        <v>952</v>
       </c>
       <c r="K308" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L308" s="39" t="s">
-        <v>947</v>
+        <v>939</v>
+      </c>
+      <c r="L308" s="40" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15094,10 +15082,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="3">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C309" s="24" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D309" s="3">
         <v>-1</v>
@@ -15106,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="25" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="G309" s="3">
         <v>1</v>
@@ -15115,16 +15103,16 @@
         <v>1</v>
       </c>
       <c r="I309" s="24" t="s">
-        <v>950</v>
-      </c>
-      <c r="J309" s="38" t="s">
-        <v>951</v>
+        <v>955</v>
+      </c>
+      <c r="J309" s="39" t="s">
+        <v>956</v>
       </c>
       <c r="K309" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>947</v>
+        <v>939</v>
+      </c>
+      <c r="L309" s="40" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
@@ -15132,10 +15120,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D310" s="3">
         <v>-1</v>
@@ -15144,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="25" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="G310" s="3">
         <v>1</v>
@@ -15153,27 +15141,27 @@
         <v>1</v>
       </c>
       <c r="I310" s="24" t="s">
-        <v>954</v>
-      </c>
-      <c r="J310" s="38" t="s">
-        <v>955</v>
+        <v>959</v>
+      </c>
+      <c r="J310" s="39" t="s">
+        <v>960</v>
       </c>
       <c r="K310" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L310" s="39" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
+        <v>939</v>
+      </c>
+      <c r="L310" s="40" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="311" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A311" s="3">
         <v>310</v>
       </c>
       <c r="B311" s="3">
-        <v>310</v>
-      </c>
-      <c r="C311" s="24" t="s">
-        <v>956</v>
+        <v>313</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>961</v>
       </c>
       <c r="D311" s="3">
         <v>-1</v>
@@ -15181,37 +15169,31 @@
       <c r="E311" s="3">
         <v>1</v>
       </c>
-      <c r="F311" s="25" t="s">
-        <v>957</v>
+      <c r="F311" s="31" t="s">
+        <v>924</v>
       </c>
       <c r="G311" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H311" s="3">
         <v>1</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>958</v>
-      </c>
-      <c r="J311" s="38" t="s">
-        <v>959</v>
-      </c>
-      <c r="K311" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L311" s="39" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
+        <v>962</v>
+      </c>
+      <c r="J311" s="24" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="312" ht="16.5" spans="1:12">
       <c r="A312" s="3">
         <v>311</v>
       </c>
-      <c r="B312" s="3">
-        <v>311</v>
-      </c>
-      <c r="C312" s="24" t="s">
-        <v>960</v>
+      <c r="B312" s="10">
+        <v>314</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>964</v>
       </c>
       <c r="D312" s="3">
         <v>-1</v>
@@ -15220,36 +15202,33 @@
         <v>1</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="G312" s="3">
+        <v>965</v>
+      </c>
+      <c r="G312" s="10">
         <v>1</v>
       </c>
       <c r="H312" s="3">
         <v>1</v>
       </c>
-      <c r="I312" s="24" t="s">
-        <v>962</v>
-      </c>
-      <c r="J312" s="38" t="s">
-        <v>963</v>
-      </c>
-      <c r="K312" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L312" s="39" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
+      <c r="I312" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="L312" s="14" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="313" ht="16.5" spans="1:12">
       <c r="A313" s="3">
         <v>312</v>
       </c>
-      <c r="B313" s="3">
-        <v>312</v>
-      </c>
-      <c r="C313" s="24" t="s">
-        <v>964</v>
+      <c r="B313" s="10">
+        <v>315</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>969</v>
       </c>
       <c r="D313" s="3">
         <v>-1</v>
@@ -15258,36 +15237,33 @@
         <v>1</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="G313" s="3">
+        <v>970</v>
+      </c>
+      <c r="G313" s="10">
         <v>1</v>
       </c>
       <c r="H313" s="3">
         <v>1</v>
       </c>
-      <c r="I313" s="24" t="s">
-        <v>966</v>
-      </c>
-      <c r="J313" s="38" t="s">
-        <v>967</v>
-      </c>
-      <c r="K313" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="L313" s="39" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="I313" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="L313" s="14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="314" ht="16.5" spans="1:12">
       <c r="A314" s="3">
         <v>313</v>
       </c>
-      <c r="B314" s="3">
-        <v>313</v>
-      </c>
-      <c r="C314" s="25" t="s">
-        <v>968</v>
+      <c r="B314" s="10">
+        <v>316</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>974</v>
       </c>
       <c r="D314" s="3">
         <v>-1</v>
@@ -15295,20 +15271,23 @@
       <c r="E314" s="3">
         <v>1</v>
       </c>
-      <c r="F314" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="G314" s="3">
-        <v>0</v>
+      <c r="F314" s="25" t="s">
+        <v>975</v>
+      </c>
+      <c r="G314" s="10">
+        <v>1</v>
       </c>
       <c r="H314" s="3">
         <v>1</v>
       </c>
-      <c r="I314" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="J314" s="24" t="s">
-        <v>970</v>
+      <c r="I314" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="J314" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="L314" s="14" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="315" ht="16.5" spans="1:12">
@@ -15316,10 +15295,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="10">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="D315" s="3">
         <v>-1</v>
@@ -15328,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="G315" s="10">
         <v>1</v>
@@ -15337,129 +15316,123 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="J315" s="10" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="L315" s="14" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="316" ht="16.5" spans="1:12">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
       <c r="A316" s="3">
         <v>315</v>
       </c>
       <c r="B316" s="10">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="D316" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E316" s="3">
-        <v>1</v>
-      </c>
-      <c r="F316" s="25" t="s">
-        <v>977</v>
+        <v>984</v>
+      </c>
+      <c r="D316" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E316" s="10">
+        <v>1</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>985</v>
       </c>
       <c r="G316" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H316" s="3">
         <v>1</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="J316" s="10" t="s">
-        <v>979</v>
-      </c>
-      <c r="L316" s="14" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="317" ht="16.5" spans="1:12">
+        <v>986</v>
+      </c>
+      <c r="J316" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" s="3">
         <v>316</v>
       </c>
       <c r="B317" s="10">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>981</v>
-      </c>
-      <c r="D317" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E317" s="3">
-        <v>1</v>
-      </c>
-      <c r="F317" s="25" t="s">
-        <v>982</v>
+        <v>988</v>
+      </c>
+      <c r="D317" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E317" s="10">
+        <v>1</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>989</v>
       </c>
       <c r="G317" s="10">
         <v>1</v>
       </c>
-      <c r="H317" s="3">
+      <c r="H317" s="10">
         <v>1</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="J317" s="10" t="s">
-        <v>984</v>
+        <v>990</v>
+      </c>
+      <c r="J317" s="14" t="s">
+        <v>991</v>
       </c>
       <c r="L317" s="14" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="318" ht="16.5" spans="1:12">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
       <c r="A318" s="3">
         <v>317</v>
       </c>
       <c r="B318" s="10">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="D318" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E318" s="3">
-        <v>1</v>
-      </c>
-      <c r="F318" s="25" t="s">
-        <v>987</v>
+        <v>993</v>
+      </c>
+      <c r="D318" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E318" s="10">
+        <v>1</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>931</v>
       </c>
       <c r="G318" s="10">
-        <v>1</v>
-      </c>
-      <c r="H318" s="3">
+        <v>0</v>
+      </c>
+      <c r="H318" s="10">
         <v>1</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>988</v>
-      </c>
-      <c r="J318" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="L318" s="14" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
+        <v>994</v>
+      </c>
+      <c r="J318" s="14" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" spans="1:10">
       <c r="A319" s="3">
         <v>318</v>
       </c>
       <c r="B319" s="10">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="D319" s="10">
         <v>-1</v>
@@ -15467,31 +15440,31 @@
       <c r="E319" s="10">
         <v>1</v>
       </c>
-      <c r="F319" s="14" t="s">
-        <v>992</v>
+      <c r="F319" s="37" t="s">
+        <v>997</v>
       </c>
       <c r="G319" s="10">
         <v>0</v>
       </c>
-      <c r="H319" s="3">
-        <v>1</v>
-      </c>
-      <c r="I319" s="14" t="s">
-        <v>993</v>
+      <c r="H319" s="10">
+        <v>1</v>
+      </c>
+      <c r="I319" s="16" t="s">
+        <v>998</v>
       </c>
       <c r="J319" s="14" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12">
-      <c r="A320" s="10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="A320" s="3">
         <v>319</v>
       </c>
       <c r="B320" s="10">
-        <v>319</v>
-      </c>
-      <c r="C320" s="14" t="s">
-        <v>995</v>
+        <v>322</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D320" s="10">
         <v>-1</v>
@@ -15499,34 +15472,31 @@
       <c r="E320" s="10">
         <v>1</v>
       </c>
-      <c r="F320" s="14" t="s">
-        <v>996</v>
+      <c r="F320" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="G320" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320" s="10">
         <v>1</v>
       </c>
-      <c r="I320" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="J320" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="L320" s="14" t="s">
-        <v>999</v>
+      <c r="I320" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J320" s="10" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="10">
+      <c r="A321" s="3">
         <v>320</v>
       </c>
       <c r="B321" s="10">
-        <v>320</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>1000</v>
+        <v>323</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>1004</v>
       </c>
       <c r="D321" s="10">
         <v>-1</v>
@@ -15534,8 +15504,8 @@
       <c r="E321" s="10">
         <v>1</v>
       </c>
-      <c r="F321" s="14" t="s">
-        <v>938</v>
+      <c r="F321" s="10" t="s">
+        <v>1005</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -15543,22 +15513,22 @@
       <c r="H321" s="10">
         <v>1</v>
       </c>
-      <c r="I321" s="14" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J321" s="14" t="s">
+      <c r="I321" s="10" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="322" ht="15.75" spans="1:10">
-      <c r="A322" s="10">
+      <c r="J321" s="10" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="A322" s="3">
         <v>321</v>
       </c>
       <c r="B322" s="10">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D322" s="10">
         <v>-1</v>
@@ -15566,31 +15536,31 @@
       <c r="E322" s="10">
         <v>1</v>
       </c>
-      <c r="F322" s="40" t="s">
-        <v>1004</v>
+      <c r="F322" s="14" t="s">
+        <v>1008</v>
       </c>
       <c r="G322" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" s="10">
         <v>1</v>
       </c>
-      <c r="I322" s="16" t="s">
-        <v>1005</v>
+      <c r="I322" s="14" t="s">
+        <v>1009</v>
       </c>
       <c r="J322" s="14" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="10">
+      <c r="A323" s="3">
         <v>322</v>
       </c>
       <c r="B323" s="10">
-        <v>322</v>
-      </c>
-      <c r="C323" s="10" t="s">
-        <v>1007</v>
+        <v>325</v>
+      </c>
+      <c r="C323" s="14" t="s">
+        <v>1011</v>
       </c>
       <c r="D323" s="10">
         <v>-1</v>
@@ -15598,184 +15568,88 @@
       <c r="E323" s="10">
         <v>1</v>
       </c>
-      <c r="F323" s="10" t="s">
+      <c r="F323" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G323" s="10">
+        <v>1</v>
+      </c>
+      <c r="H323" s="10">
+        <v>1</v>
+      </c>
+      <c r="I323" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J323" s="14" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" spans="1:10">
+      <c r="A324" s="3">
+        <v>323</v>
+      </c>
+      <c r="B324" s="10">
+        <v>326</v>
+      </c>
+      <c r="C324" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D324" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="10">
+        <v>1</v>
+      </c>
+      <c r="F324" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="G323" s="10">
-        <v>0</v>
-      </c>
-      <c r="H323" s="10">
-        <v>1</v>
-      </c>
-      <c r="I323" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J323" s="10" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
-      <c r="A324" s="10">
-        <v>323</v>
-      </c>
-      <c r="B324" s="10">
-        <v>323</v>
-      </c>
-      <c r="C324" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D324" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E324" s="10">
-        <v>1</v>
-      </c>
-      <c r="F324" s="10" t="s">
+      <c r="G324" s="10">
+        <v>1</v>
+      </c>
+      <c r="H324" s="10">
+        <v>1</v>
+      </c>
+      <c r="I324" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J324" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" spans="1:10">
+      <c r="A325" s="3">
+        <v>324</v>
+      </c>
+      <c r="B325" s="10">
+        <v>327</v>
+      </c>
+      <c r="C325" s="41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D325" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>1</v>
+      </c>
+      <c r="F325" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="G324" s="10">
-        <v>0</v>
-      </c>
-      <c r="H324" s="10">
-        <v>1</v>
-      </c>
-      <c r="I324" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
-      <c r="A325" s="10">
-        <v>324</v>
-      </c>
-      <c r="B325" s="10">
-        <v>324</v>
-      </c>
-      <c r="C325" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D325" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E325" s="10">
-        <v>1</v>
-      </c>
-      <c r="F325" s="14" t="s">
-        <v>1015</v>
-      </c>
       <c r="G325" s="10">
         <v>1</v>
       </c>
       <c r="H325" s="10">
         <v>1</v>
       </c>
-      <c r="I325" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J325" s="14" t="s">
+      <c r="I325" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J325" s="10" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
-      <c r="A326" s="10">
-        <v>325</v>
-      </c>
-      <c r="B326" s="10">
-        <v>325</v>
-      </c>
-      <c r="C326" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D326" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E326" s="10">
-        <v>1</v>
-      </c>
-      <c r="F326" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G326" s="10">
-        <v>1</v>
-      </c>
-      <c r="H326" s="10">
-        <v>1</v>
-      </c>
-      <c r="I326" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J326" s="14" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="327" ht="15.75" spans="1:10">
-      <c r="A327" s="10">
-        <v>326</v>
-      </c>
-      <c r="B327" s="10">
-        <v>326</v>
-      </c>
-      <c r="C327" s="41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D327" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E327" s="10">
-        <v>1</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G327" s="10">
-        <v>1</v>
-      </c>
-      <c r="H327" s="10">
-        <v>1</v>
-      </c>
-      <c r="I327" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J327" s="10" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="328" ht="15.75" spans="1:10">
-      <c r="A328" s="10">
-        <v>327</v>
-      </c>
-      <c r="B328" s="10">
-        <v>327</v>
-      </c>
-      <c r="C328" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D328" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E328" s="10">
-        <v>1</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G328" s="10">
-        <v>1</v>
-      </c>
-      <c r="H328" s="10">
-        <v>1</v>
-      </c>
-      <c r="I328" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J328" s="10" t="s">
-        <v>1024</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q328">
+  <autoFilter ref="A1:Q325">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
